--- a/tests/test-files/test_helpers/expected/wrangle_book_output/sheet_116.xlsx
+++ b/tests/test-files/test_helpers/expected/wrangle_book_output/sheet_116.xlsx
@@ -526,15 +526,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-6p750mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-6p750mgml</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -608,15 +608,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-6p750mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-6p750mgml</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -632,13 +632,13 @@
         <v>4.21</v>
       </c>
       <c r="I3" t="n">
-        <v>2.9147</v>
+        <v>2.727</v>
       </c>
       <c r="J3" t="n">
-        <v>26.83</v>
+        <v>27.75</v>
       </c>
       <c r="K3" t="n">
-        <v>1404.19</v>
+        <v>1358.45</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>2.85</v>
+        <v>3.17</v>
       </c>
       <c r="R3" t="n">
-        <v>1488.243</v>
+        <v>1387.4202</v>
       </c>
     </row>
     <row r="4">
@@ -670,15 +670,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-6p750mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-6p750mgml</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -691,16 +691,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>4.12</v>
+        <v>4.13</v>
       </c>
       <c r="I4" t="n">
-        <v>2.6569</v>
+        <v>2.4737</v>
       </c>
       <c r="J4" t="n">
-        <v>26.19</v>
+        <v>1.84</v>
       </c>
       <c r="K4" t="n">
-        <v>1249.46</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>2.64</v>
+        <v>2.8</v>
       </c>
       <c r="R4" t="n">
-        <v>1380.3239</v>
+        <v>1224.8151</v>
       </c>
     </row>
     <row r="5">
@@ -732,15 +732,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-6p750mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-6p750mgml</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -756,13 +756,13 @@
         <v>3.51</v>
       </c>
       <c r="I5" t="n">
-        <v>13.4007</v>
+        <v>12.5059</v>
       </c>
       <c r="J5" t="n">
-        <v>27.84</v>
+        <v>27.24</v>
       </c>
       <c r="K5" t="n">
-        <v>6698.68</v>
+        <v>6115.56</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -782,10 +782,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>11.1</v>
+        <v>12.05</v>
       </c>
       <c r="R5" t="n">
-        <v>5790.7007</v>
+        <v>5274.1499</v>
       </c>
     </row>
     <row r="6">
@@ -794,15 +794,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-6p750mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-6p750mgml</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -818,13 +818,13 @@
         <v>3.19</v>
       </c>
       <c r="I6" t="n">
-        <v>16.0443</v>
+        <v>14.973</v>
       </c>
       <c r="J6" t="n">
-        <v>29.73</v>
+        <v>27.89</v>
       </c>
       <c r="K6" t="n">
-        <v>8564.52</v>
+        <v>7497.69</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -844,10 +844,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>9.18</v>
+        <v>10.08</v>
       </c>
       <c r="R6" t="n">
-        <v>4792.5533</v>
+        <v>4412.5252</v>
       </c>
     </row>
     <row r="7">
@@ -856,15 +856,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-6p750mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-6p750mgml</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -880,13 +880,13 @@
         <v>3.01</v>
       </c>
       <c r="I7" t="n">
-        <v>6.7787</v>
+        <v>6.4573</v>
       </c>
       <c r="J7" t="n">
-        <v>33.72</v>
+        <v>33.13</v>
       </c>
       <c r="K7" t="n">
-        <v>4104.12</v>
+        <v>3840.6</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -906,10 +906,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>6.33</v>
+        <v>7.04</v>
       </c>
       <c r="R7" t="n">
-        <v>3303.2207</v>
+        <v>3082.2894</v>
       </c>
     </row>
     <row r="8">
@@ -918,15 +918,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-6p750mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-6p750mgml</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -942,13 +942,13 @@
         <v>1.69</v>
       </c>
       <c r="I8" t="n">
-        <v>83.05240000000001</v>
+        <v>79.10939999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>4.65</v>
+        <v>4.35</v>
       </c>
       <c r="K8" t="n">
-        <v>6926.16</v>
+        <v>6173.21</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -968,10 +968,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>12.88</v>
+        <v>13.85</v>
       </c>
       <c r="R8" t="n">
-        <v>6723.4843</v>
+        <v>6061.6281</v>
       </c>
     </row>
     <row r="9">
@@ -980,15 +980,15 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-6p750mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-6p750mgml</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -1004,13 +1004,13 @@
         <v>0.84</v>
       </c>
       <c r="I9" t="n">
-        <v>18.4383</v>
+        <v>17.7771</v>
       </c>
       <c r="J9" t="n">
-        <v>2.01</v>
+        <v>1.84</v>
       </c>
       <c r="K9" t="n">
-        <v>665.47</v>
+        <v>588.05</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>1.01</v>
       </c>
       <c r="R9" t="n">
-        <v>527.335</v>
+        <v>443.8265</v>
       </c>
     </row>
   </sheetData>
